--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hust\repo\Sok_new\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8807DC-C691-47DA-9F9D-83A2F6E5993B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C7CAC5-BDB9-4090-BF71-1902F112FBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F394506E-3979-4C50-ABF6-BBB6B2F02E0B}"/>
+    <workbookView xWindow="18240" yWindow="7905" windowWidth="28800" windowHeight="15435" xr2:uid="{F394506E-3979-4C50-ABF6-BBB6B2F02E0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -1060,10 +1060,6 @@
     <t>CWE-415</t>
   </si>
   <si>
-    <t>11/3/1/0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>libzip</t>
   </si>
   <si>
@@ -1225,6 +1221,10 @@
   <si>
     <t>jhead</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/3/0/0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1524,9 +1524,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1564,7 +1564,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1670,7 +1670,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1812,7 +1812,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1823,16 +1823,16 @@
   <dimension ref="A1:L149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B141" sqref="B141"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="2" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="26.375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.875" style="2" bestFit="1" customWidth="1"/>
@@ -1874,10 +1874,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>5</v>
@@ -3476,13 +3476,13 @@
         <v>111</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>15</v>
@@ -3786,7 +3786,7 @@
         <v>16</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="J52" s="7" t="s">
         <v>15</v>
@@ -5952,7 +5952,7 @@
         <v>16</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="J109" s="7" t="s">
         <v>15</v>
@@ -6513,7 +6513,7 @@
         <v>221</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="G124" s="8" t="s">
         <v>16</v>
@@ -6536,13 +6536,13 @@
     </row>
     <row r="125" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="C125" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>14</v>
@@ -6574,10 +6574,10 @@
     </row>
     <row r="126" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>13</v>
@@ -6612,10 +6612,10 @@
     </row>
     <row r="127" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>126</v>
@@ -6650,10 +6650,10 @@
     </row>
     <row r="128" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>126</v>
@@ -6662,7 +6662,7 @@
         <v>14</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F128" s="8" t="s">
         <v>33</v>
@@ -6688,10 +6688,10 @@
     </row>
     <row r="129" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>13</v>
@@ -6726,10 +6726,10 @@
     </row>
     <row r="130" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>74</v>
@@ -6764,10 +6764,10 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>74</v>
@@ -6802,10 +6802,10 @@
     </row>
     <row r="132" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>74</v>
@@ -6840,10 +6840,10 @@
     </row>
     <row r="133" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>13</v>
@@ -6878,10 +6878,10 @@
     </row>
     <row r="134" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>126</v>
@@ -6916,13 +6916,13 @@
     </row>
     <row r="135" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B135" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>14</v>
@@ -6954,13 +6954,13 @@
     </row>
     <row r="136" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="C136" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>14</v>
@@ -6992,13 +6992,13 @@
     </row>
     <row r="137" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>14</v>
@@ -7007,10 +7007,10 @@
         <v>175</v>
       </c>
       <c r="F137" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G137" s="8" t="s">
         <v>309</v>
-      </c>
-      <c r="G137" s="8" t="s">
-        <v>310</v>
       </c>
       <c r="H137" s="8" t="s">
         <v>16</v>
@@ -7030,13 +7030,13 @@
     </row>
     <row r="138" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>14</v>
@@ -7068,13 +7068,13 @@
     </row>
     <row r="139" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="C139" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>14</v>
@@ -7106,10 +7106,10 @@
     </row>
     <row r="140" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>126</v>
@@ -7118,10 +7118,10 @@
         <v>14</v>
       </c>
       <c r="E140" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F140" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F140" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="G140" s="8" t="s">
         <v>16</v>
@@ -7144,10 +7144,10 @@
     </row>
     <row r="141" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>126</v>
@@ -7182,10 +7182,10 @@
     </row>
     <row r="142" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>126</v>
@@ -7220,7 +7220,7 @@
     </row>
     <row r="143" spans="1:12" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B143" s="24"/>
       <c r="C143" s="24"/>

--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hust\repo\Sok_new\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hust\课题组\sok\latest_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C7CAC5-BDB9-4090-BF71-1902F112FBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA14B13C-5326-4B83-BCEA-9776579769FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18240" yWindow="7905" windowWidth="28800" windowHeight="15435" xr2:uid="{F394506E-3979-4C50-ABF6-BBB6B2F02E0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F394506E-3979-4C50-ABF6-BBB6B2F02E0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$A$2:$L$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$A$2:$N$147</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="413">
   <si>
     <t>Vulnerable Program</t>
   </si>
@@ -1226,12 +1226,291 @@
     <t>11/3/0/0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>VQM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VulMaster</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50/0/0/0</t>
+  </si>
+  <si>
+    <t>50/2/0/0</t>
+  </si>
+  <si>
+    <t>50/20/0/0</t>
+  </si>
+  <si>
+    <t>50/5/0/0</t>
+  </si>
+  <si>
+    <t>50/13/0/0</t>
+  </si>
+  <si>
+    <t>48/1/0/0</t>
+  </si>
+  <si>
+    <t>38/0/0/0</t>
+  </si>
+  <si>
+    <t>50/1/0/0</t>
+  </si>
+  <si>
+    <t>23/0/0/0</t>
+  </si>
+  <si>
+    <t>43/22/20/0</t>
+  </si>
+  <si>
+    <t>3/0/0/0</t>
+  </si>
+  <si>
+    <t>6/0/0/0</t>
+  </si>
+  <si>
+    <t>50/19/17/0</t>
+  </si>
+  <si>
+    <t>35/4/0/0</t>
+  </si>
+  <si>
+    <t>48/0/0/0</t>
+  </si>
+  <si>
+    <t>50/28/0/0</t>
+  </si>
+  <si>
+    <t>50/27/0/0</t>
+  </si>
+  <si>
+    <t>50/17/5/0</t>
+  </si>
+  <si>
+    <t>42/5/1/0</t>
+  </si>
+  <si>
+    <t>46/8/0/0</t>
+  </si>
+  <si>
+    <t>25/20/0/0</t>
+  </si>
+  <si>
+    <t>7/0/0/0</t>
+  </si>
+  <si>
+    <t>48/9/3/0</t>
+  </si>
+  <si>
+    <t>37/23/0/0</t>
+  </si>
+  <si>
+    <t>50/48/11/0</t>
+  </si>
+  <si>
+    <t>50/3/0/0</t>
+  </si>
+  <si>
+    <t>19/0/0/0</t>
+  </si>
+  <si>
+    <t>50/4/0/0</t>
+  </si>
+  <si>
+    <t>38/8/0/0</t>
+  </si>
+  <si>
+    <t>50/26/0/0</t>
+  </si>
+  <si>
+    <t>50/9/5/0</t>
+  </si>
+  <si>
+    <t>44/5/0/0</t>
+  </si>
+  <si>
+    <t>41/0/0/0</t>
+  </si>
+  <si>
+    <t>38/24/0/0</t>
+  </si>
+  <si>
+    <t>50/24/0/0</t>
+  </si>
+  <si>
+    <t>50/42/0/0</t>
+  </si>
+  <si>
+    <t>45/0/0/0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40/0/0/0</t>
+  </si>
+  <si>
+    <t>43/0/0/0</t>
+  </si>
+  <si>
+    <t>44/0/0/0</t>
+  </si>
+  <si>
+    <t>49/10/0/0</t>
+  </si>
+  <si>
+    <t>48/3/0/0</t>
+  </si>
+  <si>
+    <t>46/0/0/0</t>
+  </si>
+  <si>
+    <t>21/0/0/0</t>
+  </si>
+  <si>
+    <t>33/0/0/0</t>
+  </si>
+  <si>
+    <t>15/6/6/0</t>
+  </si>
+  <si>
+    <t>9/0/0/0</t>
+  </si>
+  <si>
+    <t>50/21/0/0</t>
+  </si>
+  <si>
+    <t>50/22/0/0</t>
+  </si>
+  <si>
+    <t>50/49/0/0</t>
+  </si>
+  <si>
+    <t>4/2/1/0</t>
+  </si>
+  <si>
+    <t>50/32/4/0</t>
+  </si>
+  <si>
+    <t>47/3/2/0</t>
+  </si>
+  <si>
+    <t>49/0/0/0</t>
+  </si>
+  <si>
+    <t>50/48/0/0</t>
+  </si>
+  <si>
+    <t>43/1/0/0</t>
+  </si>
+  <si>
+    <t>50/1/1/0</t>
+  </si>
+  <si>
+    <t>42/0/0/0</t>
+  </si>
+  <si>
+    <t>47/28/16/0</t>
+  </si>
+  <si>
+    <t>18/6/0/0</t>
+  </si>
+  <si>
+    <t>50/44/0/0</t>
+  </si>
+  <si>
+    <t>38/3/0/0</t>
+  </si>
+  <si>
+    <t>25/0/0/0</t>
+  </si>
+  <si>
+    <t>47/0/0/0</t>
+  </si>
+  <si>
+    <t>✗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2016-7445</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2006-2025</t>
+  </si>
+  <si>
+    <t>CVE-2010-2481</t>
+  </si>
+  <si>
+    <t>CVE-2013-4243</t>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CWE-476</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASAN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1/1/0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50/24/3/1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50/2/1/1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/7/0/0</t>
+  </si>
+  <si>
+    <t>49/22/0/0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>43/0/0/0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>34/0/0/0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>39/3/0/0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50/0/0/0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/0/0/0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automated vulnerability repair tool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1320,6 +1599,12 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
@@ -1428,7 +1713,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1485,6 +1770,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1820,47 +2108,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2955E977-B3C4-4F8C-90AC-41198B7615AB}">
-  <dimension ref="A1:L149"/>
+  <dimension ref="A1:N153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="13.375" style="1"/>
+    <col min="7" max="8" width="24" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="13.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
       <c r="L1" s="22"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="22"/>
+      <c r="N1" s="23"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1880,25 +2173,31 @@
         <v>323</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1917,26 +2216,32 @@
       <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="K3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -1955,26 +2260,32 @@
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="K4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1993,26 +2304,32 @@
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="K5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -2031,26 +2348,32 @@
       <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="K6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -2069,26 +2392,32 @@
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="G7" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="K7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -2107,26 +2436,32 @@
       <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="K8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -2145,26 +2480,32 @@
       <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="G9" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="K9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -2183,26 +2524,32 @@
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="K10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -2221,26 +2568,32 @@
       <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="G11" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="K11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -2259,26 +2612,32 @@
       <c r="F12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -2297,26 +2656,32 @@
       <c r="F13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="4" t="s">
+      <c r="K13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -2335,26 +2700,32 @@
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="4" t="s">
+      <c r="K14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
@@ -2373,26 +2744,32 @@
       <c r="F15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="G15" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="K15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N15" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
@@ -2411,26 +2788,32 @@
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="G16" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
@@ -2449,26 +2832,32 @@
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="G17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="K17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -2487,26 +2876,32 @@
       <c r="F18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="G18" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="K18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L18" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
@@ -2525,26 +2920,32 @@
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>41</v>
       </c>
@@ -2563,26 +2964,32 @@
       <c r="F20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="G20" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="K20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>49</v>
       </c>
@@ -2601,26 +3008,32 @@
       <c r="F21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>16</v>
+      <c r="G21" s="3" t="s">
+        <v>368</v>
       </c>
       <c r="H21" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
@@ -2639,26 +3052,32 @@
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="3" t="s">
+      <c r="G22" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" s="4" t="s">
+      <c r="K22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -2677,26 +3096,32 @@
       <c r="F23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="3" t="s">
+      <c r="G23" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="K23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>59</v>
       </c>
@@ -2715,26 +3140,32 @@
       <c r="F24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>16</v>
+      <c r="G24" s="20" t="s">
+        <v>394</v>
       </c>
       <c r="H24" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="L24" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="N24" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -2754,25 +3185,31 @@
         <v>66</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="K25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
@@ -2792,25 +3229,31 @@
         <v>16</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>49</v>
       </c>
@@ -2829,26 +3272,32 @@
       <c r="F27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="L27" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="N27" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>49</v>
       </c>
@@ -2867,26 +3316,32 @@
       <c r="F28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>16</v>
+      <c r="G28" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="H28" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M28" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="L28" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="N28" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>49</v>
       </c>
@@ -2903,28 +3358,34 @@
         <v>16</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="K29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L29" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>49</v>
       </c>
@@ -2944,25 +3405,31 @@
         <v>53</v>
       </c>
       <c r="G30" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="K30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>49</v>
       </c>
@@ -2981,26 +3448,32 @@
       <c r="F31" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>16</v>
+      <c r="G31" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="H31" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="K31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>49</v>
       </c>
@@ -3020,25 +3493,31 @@
         <v>83</v>
       </c>
       <c r="G32" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L32" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="K32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>49</v>
       </c>
@@ -3057,26 +3536,32 @@
       <c r="F33" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="3" t="s">
+      <c r="G33" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>49</v>
       </c>
@@ -3095,26 +3580,32 @@
       <c r="F34" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>16</v>
+      <c r="G34" s="20" t="s">
+        <v>394</v>
       </c>
       <c r="H34" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="K34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>49</v>
       </c>
@@ -3133,26 +3624,32 @@
       <c r="F35" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G35" s="8" t="s">
-        <v>16</v>
+      <c r="G35" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="H35" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K35" s="11" t="s">
+      <c r="K35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M35" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="L35" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="N35" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>49</v>
       </c>
@@ -3171,26 +3668,32 @@
       <c r="F36" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G36" s="8" t="s">
-        <v>16</v>
+      <c r="G36" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="H36" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I36" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="K36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>49</v>
       </c>
@@ -3209,26 +3712,32 @@
       <c r="F37" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="K37" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L37" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>49</v>
       </c>
@@ -3247,26 +3756,32 @@
       <c r="F38" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G38" s="8" t="s">
-        <v>16</v>
+      <c r="G38" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="H38" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I38" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="K38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>100</v>
       </c>
@@ -3285,26 +3800,32 @@
       <c r="F39" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="8" t="s">
-        <v>16</v>
+      <c r="G39" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="H39" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>103</v>
       </c>
@@ -3323,26 +3844,32 @@
       <c r="F40" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="3" t="s">
+      <c r="G40" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L40" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>103</v>
       </c>
@@ -3362,25 +3889,31 @@
         <v>33</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="K41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>103</v>
       </c>
@@ -3400,25 +3933,31 @@
         <v>33</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J42" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L42" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>103</v>
       </c>
@@ -3438,25 +3977,31 @@
         <v>33</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J43" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L43" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>109</v>
       </c>
@@ -3475,26 +4020,32 @@
       <c r="F44" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>16</v>
+      <c r="G44" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>394</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J44" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L44" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="J44" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>112</v>
       </c>
@@ -3513,26 +4064,32 @@
       <c r="F45" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="14" t="s">
+      <c r="G45" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="I45" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J45" s="7" t="s">
+      <c r="K45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K45" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L45" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="M45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>112</v>
       </c>
@@ -3552,25 +4109,31 @@
         <v>15</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>16</v>
+        <v>365</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J46" s="7" t="s">
-        <v>15</v>
+      <c r="J46" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L46" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>119</v>
       </c>
@@ -3590,25 +4153,31 @@
         <v>122</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>34</v>
+        <v>375</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>17</v>
+        <v>339</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J47" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L47" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="J47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>123</v>
       </c>
@@ -3627,26 +4196,32 @@
       <c r="F48" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" s="3" t="s">
+      <c r="G48" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I48" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="K48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M48" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L48" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="N48" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>123</v>
       </c>
@@ -3665,26 +4240,32 @@
       <c r="F49" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>17</v>
+      <c r="G49" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>365</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J49" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L49" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="J49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>123</v>
       </c>
@@ -3703,26 +4284,32 @@
       <c r="F50" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="G50" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" s="3" t="s">
+      <c r="G50" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I50" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J50" s="7" t="s">
+      <c r="K50" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K50" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L50" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="M50" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>129</v>
       </c>
@@ -3742,25 +4329,31 @@
         <v>52</v>
       </c>
       <c r="G51" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="I51" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H51" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>15</v>
+      <c r="J51" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L51" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L51" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>132</v>
       </c>
@@ -3779,26 +4372,32 @@
       <c r="F52" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H52" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" s="3" t="s">
+      <c r="J52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J52" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L52" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L52" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N52" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>132</v>
       </c>
@@ -3817,26 +4416,32 @@
       <c r="F53" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" s="14" t="s">
+      <c r="G53" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="I53" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="K53" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L53" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L53" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>132</v>
       </c>
@@ -3855,26 +4460,32 @@
       <c r="F54" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>16</v>
+      <c r="G54" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="I54" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J54" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L54" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="J54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>132</v>
       </c>
@@ -3893,26 +4504,32 @@
       <c r="F55" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>16</v>
+      <c r="G55" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="I55" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J55" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L55" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="J55" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>132</v>
       </c>
@@ -3931,26 +4548,32 @@
       <c r="F56" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>16</v>
+      <c r="G56" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="I56" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J56" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L56" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="J56" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>132</v>
       </c>
@@ -3969,26 +4592,32 @@
       <c r="F57" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G57" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H57" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="J57" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>132</v>
       </c>
@@ -4007,26 +4636,32 @@
       <c r="F58" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>16</v>
+      <c r="G58" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="I58" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J58" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L58" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="J58" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>141</v>
       </c>
@@ -4046,25 +4681,31 @@
         <v>33</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>16</v>
+        <v>374</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>15</v>
+        <v>341</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="K59" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M59" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L59" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N59" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>144</v>
       </c>
@@ -4084,25 +4725,31 @@
         <v>147</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H60" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="I60" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L60" s="4" t="s">
+      <c r="K60" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N60" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>144</v>
       </c>
@@ -4121,26 +4768,32 @@
       <c r="F61" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G61" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="I61" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H61" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>15</v>
+      <c r="J61" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L61" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L61" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>144</v>
       </c>
@@ -4160,25 +4813,31 @@
         <v>33</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>16</v>
+        <v>378</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>15</v>
+        <v>344</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L62" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L62" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>144</v>
       </c>
@@ -4197,26 +4856,32 @@
       <c r="F63" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G63" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>15</v>
+      <c r="G63" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="K63" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M63" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L63" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="N63" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>144</v>
       </c>
@@ -4235,26 +4900,32 @@
       <c r="F64" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G64" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>15</v>
+      <c r="G64" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="K64" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M64" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L64" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N64" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>157</v>
       </c>
@@ -4273,26 +4944,32 @@
       <c r="F65" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G65" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" s="12" t="s">
+      <c r="G65" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="K65" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J65" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L65" s="4" t="s">
+      <c r="L65" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M65" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N65" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>144</v>
       </c>
@@ -4311,26 +4988,32 @@
       <c r="F66" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="G66" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>16</v>
+      <c r="G66" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J66" s="7" t="s">
-        <v>15</v>
+      <c r="J66" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L66" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L66" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>144</v>
       </c>
@@ -4350,25 +5033,31 @@
         <v>15</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>16</v>
+        <v>365</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J67" s="7" t="s">
-        <v>15</v>
+      <c r="J67" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L67" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L67" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M67" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>144</v>
       </c>
@@ -4388,25 +5077,31 @@
         <v>15</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="I68" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="K68" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L68" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L68" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M68" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>144</v>
       </c>
@@ -4425,26 +5120,32 @@
       <c r="F69" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="G69" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>16</v>
+      <c r="G69" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J69" s="7" t="s">
-        <v>15</v>
+      <c r="J69" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L69" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L69" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>144</v>
       </c>
@@ -4463,26 +5164,32 @@
       <c r="F70" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G70" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" s="14" t="s">
+      <c r="G70" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="I70" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="K70" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L70" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L70" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M70" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N70" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>144</v>
       </c>
@@ -4501,26 +5208,32 @@
       <c r="F71" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="G71" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>16</v>
+      <c r="G71" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="H71" s="19" t="s">
+        <v>350</v>
       </c>
       <c r="I71" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J71" s="7" t="s">
-        <v>15</v>
+      <c r="J71" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L71" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L71" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M71" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>144</v>
       </c>
@@ -4539,26 +5252,32 @@
       <c r="F72" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G72" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>16</v>
+      <c r="G72" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J72" s="7" t="s">
-        <v>15</v>
+      <c r="J72" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L72" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L72" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M72" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N72" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>144</v>
       </c>
@@ -4578,25 +5297,31 @@
         <v>33</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>16</v>
+        <v>372</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>16</v>
+        <v>330</v>
       </c>
       <c r="I73" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J73" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K73" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L73" s="4" t="s">
+      <c r="J73" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M73" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N73" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>157</v>
       </c>
@@ -4615,26 +5340,32 @@
       <c r="F74" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G74" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H74" s="12" t="s">
+      <c r="G74" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="K74" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J74" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K74" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L74" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L74" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M74" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>144</v>
       </c>
@@ -4653,26 +5384,32 @@
       <c r="F75" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="G75" s="8" t="s">
-        <v>16</v>
+      <c r="G75" s="20" t="s">
+        <v>394</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J75" s="7" t="s">
-        <v>15</v>
+        <v>351</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="K75" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M75" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L75" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="N75" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>187</v>
       </c>
@@ -4691,26 +5428,32 @@
       <c r="F76" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G76" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>16</v>
+      <c r="G76" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H76" s="20" t="s">
+        <v>394</v>
       </c>
       <c r="I76" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J76" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K76" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L76" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="J76" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M76" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N76" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>191</v>
       </c>
@@ -4729,26 +5472,32 @@
       <c r="F77" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G77" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>16</v>
+      <c r="G77" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H77" s="20" t="s">
+        <v>394</v>
       </c>
       <c r="I77" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J77" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K77" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L77" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J77" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M77" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>191</v>
       </c>
@@ -4768,25 +5517,31 @@
         <v>106</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H78" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J78" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="I78" s="3" t="s">
+      <c r="K78" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J78" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K78" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L78" s="4" t="s">
+      <c r="L78" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M78" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N78" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>196</v>
       </c>
@@ -4805,26 +5560,32 @@
       <c r="F79" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G79" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>16</v>
+      <c r="G79" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="I79" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J79" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K79" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L79" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="J79" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L79" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M79" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N79" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>198</v>
       </c>
@@ -4843,26 +5604,32 @@
       <c r="F80" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G80" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H80" s="12" t="s">
+      <c r="G80" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="I80" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J80" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K80" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L80" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="K80" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L80" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M80" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N80" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>201</v>
       </c>
@@ -4881,26 +5648,32 @@
       <c r="F81" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G81" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H81" s="12" t="s">
+      <c r="G81" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J81" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="I81" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J81" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K81" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L81" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="K81" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L81" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M81" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N81" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>201</v>
       </c>
@@ -4919,26 +5692,32 @@
       <c r="F82" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G82" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H82" s="12" t="s">
+      <c r="G82" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J82" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="I82" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K82" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L82" s="4" t="s">
+      <c r="K82" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L82" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M82" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N82" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>204</v>
       </c>
@@ -4957,26 +5736,32 @@
       <c r="F83" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="G83" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="H83" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="I83" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H83" s="10" t="s">
+      <c r="J83" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I83" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J83" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K83" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L83" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="K83" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L83" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M83" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N83" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>206</v>
       </c>
@@ -4995,26 +5780,32 @@
       <c r="F84" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G84" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I84" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H84" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I84" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>15</v>
+      <c r="J84" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="K84" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L84" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M84" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L84" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="N84" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>206</v>
       </c>
@@ -5033,26 +5824,32 @@
       <c r="F85" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G85" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>16</v>
+      <c r="G85" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="I85" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J85" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K85" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L85" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="J85" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L85" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M85" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N85" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>206</v>
       </c>
@@ -5071,26 +5868,32 @@
       <c r="F86" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G86" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H86" s="8" t="s">
-        <v>16</v>
+      <c r="G86" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="I86" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J86" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K86" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L86" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="J86" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K86" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L86" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M86" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N86" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>210</v>
       </c>
@@ -5109,26 +5912,32 @@
       <c r="F87" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G87" s="8" t="s">
-        <v>16</v>
+      <c r="G87" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="H87" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J87" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I87" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J87" s="7" t="s">
+      <c r="K87" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L87" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K87" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L87" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="M87" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N87" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>213</v>
       </c>
@@ -5147,26 +5956,32 @@
       <c r="F88" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G88" s="8" t="s">
-        <v>16</v>
+      <c r="G88" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="H88" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J88" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I88" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J88" s="7" t="s">
+      <c r="K88" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L88" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K88" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L88" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="M88" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N88" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>213</v>
       </c>
@@ -5185,26 +6000,32 @@
       <c r="F89" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="G89" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="I89" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="J89" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I89" s="3" t="s">
+      <c r="K89" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J89" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K89" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L89" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L89" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M89" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N89" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>213</v>
       </c>
@@ -5224,25 +6045,31 @@
         <v>217</v>
       </c>
       <c r="G90" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="I90" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H90" s="3" t="s">
+      <c r="J90" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I90" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J90" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="K90" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L90" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L90" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M90" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N90" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>218</v>
       </c>
@@ -5261,26 +6088,32 @@
       <c r="F91" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="G91" s="8" t="s">
-        <v>16</v>
+      <c r="G91" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="H91" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I91" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="K91" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L91" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L91" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M91" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N91" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>213</v>
       </c>
@@ -5299,26 +6132,32 @@
       <c r="F92" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="G92" s="8" t="s">
-        <v>16</v>
+      <c r="G92" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="H92" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J92" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I92" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J92" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K92" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L92" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="K92" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L92" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M92" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N92" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>213</v>
       </c>
@@ -5337,26 +6176,32 @@
       <c r="F93" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="G93" s="8" t="s">
-        <v>16</v>
+      <c r="G93" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="H93" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J93" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I93" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J93" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="K93" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L93" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M93" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="L93" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N93" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>213</v>
       </c>
@@ -5376,25 +6221,31 @@
         <v>230</v>
       </c>
       <c r="G94" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="I94" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H94" s="3" t="s">
+      <c r="J94" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J94" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K94" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L94" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L94" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M94" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N94" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>213</v>
       </c>
@@ -5413,26 +6264,32 @@
       <c r="F95" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G95" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H95" s="3" t="s">
+      <c r="G95" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J95" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="I95" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J95" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K95" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L95" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="K95" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L95" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M95" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N95" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>232</v>
       </c>
@@ -5451,26 +6308,32 @@
       <c r="F96" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G96" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H96" s="3" t="s">
+      <c r="G96" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J96" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="I96" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J96" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K96" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L96" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="K96" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L96" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M96" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N96" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>234</v>
       </c>
@@ -5489,26 +6352,32 @@
       <c r="F97" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G97" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H97" s="3" t="s">
+      <c r="G97" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J97" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="I97" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J97" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K97" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L97" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="K97" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L97" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M97" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N97" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>234</v>
       </c>
@@ -5527,1323 +6396,1530 @@
       <c r="F98" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G98" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H98" s="3" t="s">
+      <c r="G98" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J98" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="I98" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J98" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K98" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L98" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="K98" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L98" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M98" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N98" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>237</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>238</v>
+        <v>396</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>13</v>
+        <v>399</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H99" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="J99" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K99" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L99" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K99" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="L99" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M99" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N99" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>241</v>
+        <v>397</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="F100" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="I100" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H100" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J100" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K100" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L100" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="J100" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K100" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L100" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M100" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N100" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>243</v>
+        <v>398</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>212</v>
+      <c r="E101" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>409</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H101" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="I101" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J101" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K101" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L101" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J101" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K101" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L101" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M101" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N101" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>16</v>
+        <v>384</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>16</v>
+        <v>357</v>
       </c>
       <c r="I102" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J102" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K102" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L102" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="J102" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L102" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M102" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N102" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F103" s="8" t="s">
         <v>33</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>16</v>
+        <v>372</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I103" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J103" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K103" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L103" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J103" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L103" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M103" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N103" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E104" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F104" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H104" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I104" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J104" s="7" t="s">
-        <v>15</v>
+        <v>364</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J104" s="14" t="s">
+        <v>181</v>
       </c>
       <c r="K104" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L104" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L104" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M104" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N104" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>251</v>
+        <v>13</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H105" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="I105" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J105" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K105" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L105" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="J105" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K105" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L105" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M105" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N105" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E106" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>15</v>
+      <c r="E106" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>16</v>
+        <v>388</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="J106" s="7" t="s">
-        <v>15</v>
+        <v>329</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J106" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="K106" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L106" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L106" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M106" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N106" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H107" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="J107" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="H107" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J107" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="K107" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L107" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L107" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M107" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N107" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>212</v>
+        <v>33</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>16</v>
+        <v>368</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="J108" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K108" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L108" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J108" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K108" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L108" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M108" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N108" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H109" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J109" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K109" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L109" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J109" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L109" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M109" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N109" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C110" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I110" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J110" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L110" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M110" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N110" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D111" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E110" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H110" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J110" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K110" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L110" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E111" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H111" s="12" t="s">
-        <v>148</v>
+        <v>384</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>357</v>
       </c>
       <c r="I111" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J111" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K111" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L111" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="J111" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L111" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M111" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N111" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>16</v>
+        <v>384</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="J112" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K112" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L112" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+      <c r="I112" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J112" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L112" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M112" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N112" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>161</v>
+        <v>51</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="F113" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J113" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L113" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M113" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N113" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F114" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G113" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H113" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J113" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K113" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L113" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E114" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F114" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H114" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="I114" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J114" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K114" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L114" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="G114" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="H114" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="I114" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J114" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="K114" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L114" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M114" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N114" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H115" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J115" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K115" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="I115" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J115" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K115" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L115" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L115" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M115" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N115" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H116" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="I116" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J116" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K116" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L116" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J116" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L116" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M116" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N116" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F117" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H117" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="I117" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J117" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="H117" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J117" s="12" t="s">
+        <v>266</v>
       </c>
       <c r="K117" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L117" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="L117" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M117" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N117" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E118" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F118" s="18" t="s">
-        <v>15</v>
+        <v>92</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H118" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="I118" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J118" s="7" t="s">
-        <v>15</v>
+        <v>391</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J118" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="K118" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L118" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L118" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M118" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N118" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J119" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="K119" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L119" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M119" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N119" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J120" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="K120" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L120" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M120" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N120" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G121" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="H121" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J121" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="K121" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L121" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M121" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N121" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C122" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D122" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E122" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F119" s="3" t="s">
+      <c r="F122" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G119" s="3" t="s">
+      <c r="G122" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="I122" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H119" s="15" t="s">
+      <c r="J122" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="I119" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J119" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K119" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L119" s="4" t="s">
+      <c r="K122" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L122" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M122" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N122" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A120" s="3" t="s">
+    <row r="123" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B123" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C123" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D120" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E120" s="3" t="s">
+      <c r="D123" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="F123" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="G120" s="3" t="s">
+      <c r="G123" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="I123" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H120" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I120" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J120" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K120" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L120" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
+      <c r="J123" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K123" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L123" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M123" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N123" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B124" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E121" s="3" t="s">
+      <c r="D124" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F121" s="3" t="s">
+      <c r="F124" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="G121" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H121" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I121" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J121" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K121" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L121" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
+      <c r="G124" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J124" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K124" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L124" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M124" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N124" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B125" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C125" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G122" s="3" t="s">
+      <c r="D125" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I125" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H122" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I122" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J122" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K122" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L122" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
+      <c r="J125" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K125" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L125" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M125" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N125" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B126" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E123" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F123" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G123" s="3" t="s">
+      <c r="D126" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="H126" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="I126" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H123" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I123" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J123" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K123" s="7" t="s">
+      <c r="J126" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K126" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L126" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M126" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L123" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
+      <c r="N126" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B127" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C127" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D127" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E127" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F124" s="3" t="s">
+      <c r="F127" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="G124" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H124" s="14" t="s">
+      <c r="G127" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J127" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="I124" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J124" s="7" t="s">
+      <c r="K127" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L127" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K124" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L124" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
+      <c r="M127" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N127" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B128" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C128" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G125" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H125" s="14" t="s">
+      <c r="D128" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I128" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J128" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="I125" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J125" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K125" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L125" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
+      <c r="K128" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L128" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M128" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N128" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B129" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J129" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L129" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M129" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N129" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C130" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D126" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E126" s="12" t="s">
+      <c r="D130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="F126" s="8" t="s">
+      <c r="F130" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G126" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H126" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I126" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J126" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K126" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L126" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
+      <c r="G130" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="I130" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J130" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K130" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L130" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M130" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N130" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B131" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C131" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G127" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H127" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I127" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J127" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K127" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L127" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
+      <c r="D131" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J131" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K131" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L131" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M131" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N131" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B132" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C132" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E128" s="12" t="s">
+      <c r="D132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="F128" s="8" t="s">
+      <c r="F132" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G128" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H128" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I128" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J128" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K128" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L128" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A129" s="3" t="s">
+      <c r="G132" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="H132" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="I132" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J132" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K132" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L132" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M132" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N132" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B133" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F129" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G129" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H129" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I129" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J129" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K129" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L129" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A130" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G130" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H130" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I130" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J130" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K130" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L130" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A131" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F131" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H131" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I131" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J131" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K131" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L131" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A132" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G132" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H132" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I132" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J132" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K132" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L132" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A133" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>13</v>
@@ -6851,227 +7927,263 @@
       <c r="D133" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E133" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F133" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G133" s="3" t="s">
+      <c r="E133" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I133" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J133" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K133" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L133" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M133" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N133" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I134" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J134" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="K134" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L134" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M134" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N134" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J135" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="K135" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L135" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M135" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N135" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I136" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J136" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="K136" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L136" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M136" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N136" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F137" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G137" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="H137" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="I137" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H133" s="3" t="s">
+      <c r="J137" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I133" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J133" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K133" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L133" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A134" s="3" t="s">
+      <c r="K137" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L137" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M137" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N137" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B138" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C138" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D134" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E134" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G134" s="3" t="s">
+      <c r="D138" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I138" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H134" s="3" t="s">
+      <c r="J138" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I134" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J134" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K134" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L134" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A135" s="3" t="s">
+      <c r="K138" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L138" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M138" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N138" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B139" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G135" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H135" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I135" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J135" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K135" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L135" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E136" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G136" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H136" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I136" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J136" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K136" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L136" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A137" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G137" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="H137" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I137" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J137" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K137" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L137" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A138" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F138" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G138" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H138" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I138" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J138" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K138" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L138" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A139" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>306</v>
@@ -7080,211 +8192,419 @@
         <v>14</v>
       </c>
       <c r="E139" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I139" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J139" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="K139" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L139" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M139" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N139" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I140" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J140" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K140" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L140" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M140" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N140" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="I141" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="J141" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K141" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L141" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M141" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N141" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F142" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="I142" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J142" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K142" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L142" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M142" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N142" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F139" s="7" t="s">
+      <c r="F143" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G139" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H139" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I139" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J139" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K139" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L139" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A140" s="3" t="s">
+      <c r="G143" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="I143" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J143" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K143" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L143" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M143" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N143" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B144" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C144" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E140" s="7" t="s">
+      <c r="D144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F140" s="7" t="s">
+      <c r="F144" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="G140" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H140" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I140" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J140" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K140" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L140" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A141" s="3" t="s">
+      <c r="G144" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="I144" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J144" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K144" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L144" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M144" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N144" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B145" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C145" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F141" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G141" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H141" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I141" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J141" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K141" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L141" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A142" s="3" t="s">
+      <c r="D145" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="H145" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="I145" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J145" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K145" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L145" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M145" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N145" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B146" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C146" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H142" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I142" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J142" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K142" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L142" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="23" t="s">
+      <c r="D146" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="H146" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="I146" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J146" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K146" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L146" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M146" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N146" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="B143" s="24"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="24"/>
-      <c r="E143" s="24"/>
-      <c r="F143" s="24"/>
-      <c r="G143" s="24"/>
-      <c r="H143" s="24"/>
-      <c r="I143" s="24"/>
-      <c r="J143" s="24"/>
-      <c r="K143" s="24"/>
-      <c r="L143" s="25"/>
-    </row>
-    <row r="144" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="16"/>
-      <c r="B144" s="16"/>
-      <c r="C144" s="16"/>
-      <c r="D144" s="16"/>
-      <c r="E144" s="16"/>
-      <c r="F144" s="16"/>
-      <c r="G144" s="16"/>
-      <c r="H144" s="16"/>
-      <c r="I144" s="16"/>
-      <c r="J144" s="16"/>
-      <c r="K144" s="16"/>
-      <c r="L144" s="16"/>
-    </row>
-    <row r="145" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="16"/>
-      <c r="B145" s="16"/>
-      <c r="C145" s="16"/>
-      <c r="D145" s="16"/>
-      <c r="E145" s="16"/>
-      <c r="F145" s="16"/>
-      <c r="G145" s="16"/>
-      <c r="H145" s="16"/>
-      <c r="I145" s="16"/>
-      <c r="J145" s="16"/>
-      <c r="K145" s="16"/>
-      <c r="L145" s="16"/>
-    </row>
-    <row r="146" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="16"/>
-      <c r="B146" s="16"/>
-      <c r="C146" s="16"/>
-      <c r="D146" s="16"/>
-      <c r="E146" s="16"/>
-      <c r="F146" s="16"/>
-      <c r="G146" s="16"/>
-      <c r="H146" s="16"/>
-      <c r="I146" s="16"/>
-      <c r="J146" s="16"/>
-      <c r="K146" s="16"/>
-      <c r="L146" s="16"/>
-    </row>
-    <row r="147" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B147" s="25"/>
+      <c r="C147" s="25"/>
+      <c r="D147" s="25"/>
+      <c r="E147" s="25"/>
+      <c r="F147" s="25"/>
+      <c r="G147" s="25"/>
+      <c r="H147" s="25"/>
+      <c r="I147" s="25"/>
+      <c r="J147" s="25"/>
+      <c r="K147" s="25"/>
+      <c r="L147" s="25"/>
+      <c r="M147" s="25"/>
+      <c r="N147" s="26"/>
+    </row>
+    <row r="148" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="16"/>
+      <c r="B148" s="16"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="16"/>
+      <c r="E148" s="16"/>
+      <c r="F148" s="16"/>
+      <c r="G148" s="16"/>
+      <c r="H148" s="16"/>
+      <c r="I148" s="16"/>
+      <c r="J148" s="16"/>
+      <c r="K148" s="16"/>
+      <c r="L148" s="16"/>
+      <c r="M148" s="16"/>
+      <c r="N148" s="16"/>
+    </row>
+    <row r="149" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="16"/>
+      <c r="B149" s="16"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="16"/>
+      <c r="I149" s="16"/>
+      <c r="J149" s="16"/>
+      <c r="K149" s="16"/>
+      <c r="L149" s="16"/>
+      <c r="M149" s="16"/>
+      <c r="N149" s="16"/>
+    </row>
+    <row r="150" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="16"/>
+      <c r="B150" s="16"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="16"/>
+      <c r="H150" s="16"/>
+      <c r="I150" s="16"/>
+      <c r="J150" s="16"/>
+      <c r="K150" s="16"/>
+      <c r="L150" s="16"/>
+      <c r="M150" s="16"/>
+      <c r="N150" s="16"/>
+    </row>
+    <row r="151" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A2:L143" xr:uid="{58526169-9076-4C97-B947-3DF38247BDD0}"/>
+  <autoFilter ref="A2:N147" xr:uid="{2955E977-B3C4-4F8C-90AC-41198B7615AB}"/>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:L1"/>
-    <mergeCell ref="A143:L143"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="A147:N147"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
